--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25F0049-30B2-46B1-B7D6-EE9048C6FB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222412E8-F335-45DF-AB4E-03EB9AC45140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11295" xr2:uid="{5FF1D5C2-CB6A-4A77-9498-4FF6283EB421}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
